--- a/BOM/BOM_Gerber_Wuxi Board_2025-03-18_2025-05-05.xlsx
+++ b/BOM/BOM_Gerber_Wuxi Board_2025-03-18_2025-05-05.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="13500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_20250318_6pin_mx1.25_1_ode_" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
   <si>
     <t>No.</t>
   </si>
@@ -253,45 +253,46 @@
     <t>C19723809</t>
   </si>
   <si>
-    <t>No.3 可以去除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI(德州仪器)</t>
-  </si>
-  <si>
-    <t>商品型号</t>
-  </si>
-  <si>
     <t>SN74HC245PWR</t>
   </si>
   <si>
     <t>74HC245PW,118</t>
   </si>
   <si>
-    <t>No.10 其它已测试品牌型号：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCB厚度=1.2mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>No.10 Other tested brand models:</t>
+  </si>
+  <si>
+    <t>TI( Texas Instrument)</t>
+  </si>
+  <si>
+    <t>Nexperia(Anse )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Commodity model</t>
+  </si>
+  <si>
+    <t>PCB thickness = 1.2mm</t>
+  </si>
+  <si>
+    <t>No.3 can be removed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -348,15 +349,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -692,18 +693,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="43.25" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" customWidth="1"/>
     <col min="6" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1103,38 +1104,38 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>81</v>
+      <c r="C18" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5">
       <c r="A19" s="3"/>
-      <c r="B19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>83</v>
+      <c r="B19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5">
